--- a/files/program_template.xlsx
+++ b/files/program_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wehia\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\qine fyp\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D121E925-6F78-4E6A-9056-8A0C6F412008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FB0EE3-1DA5-43BF-8F06-F3093AC5FFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="1272" yWindow="996" windowWidth="21624" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="program_template" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Nama Program</t>
   </si>
@@ -48,13 +48,19 @@
   <si>
     <t>https://www.example.com/img.png</t>
   </si>
+  <si>
+    <t>URL Fail-fail Program</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kazyfB4JHoZSmczN-FBVXB4C8qN5b46G/view</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -544,11 +550,11 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
@@ -600,7 +606,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -611,13 +617,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -637,14 +646,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A1:E20"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Nama Program" dataDxfId="6"/>
-    <tableColumn id="5" name="Gambar URL" dataDxfId="0"/>
-    <tableColumn id="2" name="Tarikh" dataDxfId="5"/>
-    <tableColumn id="3" name="Bidang" dataDxfId="4"/>
-    <tableColumn id="4" name="Description" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F20" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nama Program" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Gambar URL" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tarikh" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Bidang" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{6B6ECC4B-BAE9-49AB-A3F3-135BE75A179F}" name="URL Fail-fail Program" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -946,11 +956,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,9 +970,10 @@
     <col min="3" max="3" width="14.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="6" max="6" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -978,8 +989,11 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -995,141 +1009,166 @@
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{3237DAD8-D140-4B5B-AF4C-47E04BC2CF06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <headerFooter>
+    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 INTERNAL - NI CONFIDENTIAL</oddFooter>
+  </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>